--- a/PartnershipSLA/SLA Scorecard.xlsx
+++ b/PartnershipSLA/SLA Scorecard.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas.hocker/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas.hocker/Documents/ContractFrameworks/PartnershipSLA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1333E802-477C-6746-90C2-23264B167341}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E3BDCE-2BC3-C346-A4E0-43890713ECFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{58E04ADE-EAD2-2D48-8B2B-CB3988C5FCDE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Goals" sheetId="1" r:id="rId1"/>
+    <sheet name="Bonus" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>Contract Year</t>
   </si>
@@ -105,6 +106,24 @@
   </si>
   <si>
     <t>Q1</t>
+  </si>
+  <si>
+    <t>Bonus Target</t>
+  </si>
+  <si>
+    <t>Public blog post regarding X</t>
+  </si>
+  <si>
+    <t>Speaker for joint industry event</t>
+  </si>
+  <si>
+    <t>3 private customer references</t>
+  </si>
+  <si>
+    <t>Agree Bonus provided?</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -138,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -195,12 +220,95 @@
     <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -584,7 +692,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1092,32 +1200,195 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:I6">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:I10">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:I14">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O20">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F2FE1B-A4F7-EB47-9CDF-3AFD633F3005}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D3:D4 G3:H4">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:H5">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:F4">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
